--- a/Jasper Files/data experiment1/comparison-events.xlsx
+++ b/Jasper Files/data experiment1/comparison-events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\masterproef\master-thesis-jasper-goris\Jasper Files\data experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124079C6-668C-4AFF-A2C7-860826D99878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EB4D06-D8C9-480D-AFF2-43BBBEC07993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{54C49161-7C17-465B-AC22-CEB0536623D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{54C49161-7C17-465B-AC22-CEB0536623D9}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -931,13 +931,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,28 +964,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2372,6 +2372,7 @@
         <c:axId val="353367976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3986,6 +3987,7 @@
         <c:axId val="353367976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12805,8 +12807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A881BF8-8B2E-48D1-AD57-8527DC8121CF}">
   <dimension ref="B1:Z228"/>
   <sheetViews>
-    <sheetView topLeftCell="R4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" topLeftCell="R6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ25" sqref="AQ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12854,40 +12856,40 @@
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="40">
         <v>50</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="34">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="40">
         <v>100</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="34">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="40">
         <v>250</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="34">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="40">
         <v>500</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="34">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="40">
         <v>700</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -12898,19 +12900,19 @@
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
-      <c r="F4" s="39"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="36">
         <v>50</v>
       </c>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
-      <c r="J4" s="42"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="36">
         <v>100</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="37"/>
-      <c r="N4" s="39"/>
+      <c r="N4" s="38"/>
       <c r="O4" s="36">
         <v>200</v>
       </c>
@@ -12923,49 +12925,49 @@
       <c r="T4" s="37"/>
       <c r="U4" s="37"/>
       <c r="V4" s="37"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
     </row>
     <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="32">
         <v>2</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="31">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="32">
         <v>5</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="31">
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="32">
         <v>8</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="31">
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="32">
         <v>10</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="31">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="32">
         <v>20</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
@@ -20168,40 +20170,40 @@
       <c r="B117" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="34">
+      <c r="C117" s="40">
         <v>50</v>
       </c>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="34">
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="40">
         <v>100</v>
       </c>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="34">
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="40">
         <v>250</v>
       </c>
-      <c r="L117" s="35"/>
-      <c r="M117" s="35"/>
-      <c r="N117" s="38"/>
-      <c r="O117" s="34">
+      <c r="L117" s="41"/>
+      <c r="M117" s="41"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="40">
         <v>500</v>
       </c>
-      <c r="P117" s="35"/>
-      <c r="Q117" s="35"/>
-      <c r="R117" s="35"/>
-      <c r="S117" s="34">
+      <c r="P117" s="41"/>
+      <c r="Q117" s="41"/>
+      <c r="R117" s="41"/>
+      <c r="S117" s="40">
         <v>700</v>
       </c>
-      <c r="T117" s="35"/>
-      <c r="U117" s="35"/>
-      <c r="V117" s="35"/>
-      <c r="W117" s="33"/>
-      <c r="X117" s="33"/>
-      <c r="Y117" s="33"/>
-      <c r="Z117" s="33"/>
+      <c r="T117" s="41"/>
+      <c r="U117" s="41"/>
+      <c r="V117" s="41"/>
+      <c r="W117" s="31"/>
+      <c r="X117" s="31"/>
+      <c r="Y117" s="31"/>
+      <c r="Z117" s="31"/>
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
@@ -20212,19 +20214,19 @@
       </c>
       <c r="D118" s="37"/>
       <c r="E118" s="37"/>
-      <c r="F118" s="39"/>
+      <c r="F118" s="38"/>
       <c r="G118" s="36">
         <v>50</v>
       </c>
       <c r="H118" s="37"/>
       <c r="I118" s="37"/>
-      <c r="J118" s="42"/>
+      <c r="J118" s="39"/>
       <c r="K118" s="36">
         <v>100</v>
       </c>
       <c r="L118" s="37"/>
       <c r="M118" s="37"/>
-      <c r="N118" s="39"/>
+      <c r="N118" s="38"/>
       <c r="O118" s="36">
         <v>200</v>
       </c>
@@ -20237,49 +20239,49 @@
       <c r="T118" s="37"/>
       <c r="U118" s="37"/>
       <c r="V118" s="37"/>
-      <c r="W118" s="33"/>
-      <c r="X118" s="33"/>
-      <c r="Y118" s="33"/>
-      <c r="Z118" s="33"/>
+      <c r="W118" s="31"/>
+      <c r="X118" s="31"/>
+      <c r="Y118" s="31"/>
+      <c r="Z118" s="31"/>
     </row>
     <row r="119" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="32">
         <v>2</v>
       </c>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="40"/>
-      <c r="G119" s="31">
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="32">
         <v>5</v>
       </c>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="43"/>
-      <c r="K119" s="31">
+      <c r="H119" s="33"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="32">
         <v>8</v>
       </c>
-      <c r="L119" s="32"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="40"/>
-      <c r="O119" s="31">
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="34"/>
+      <c r="O119" s="32">
         <v>10</v>
       </c>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="32"/>
-      <c r="S119" s="31">
+      <c r="P119" s="33"/>
+      <c r="Q119" s="33"/>
+      <c r="R119" s="33"/>
+      <c r="S119" s="32">
         <v>20</v>
       </c>
-      <c r="T119" s="32"/>
-      <c r="U119" s="32"/>
-      <c r="V119" s="32"/>
-      <c r="W119" s="33"/>
-      <c r="X119" s="33"/>
-      <c r="Y119" s="33"/>
-      <c r="Z119" s="33"/>
+      <c r="T119" s="33"/>
+      <c r="U119" s="33"/>
+      <c r="V119" s="33"/>
+      <c r="W119" s="31"/>
+      <c r="X119" s="31"/>
+      <c r="Y119" s="31"/>
+      <c r="Z119" s="31"/>
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B120" s="24"/>
@@ -27453,12 +27455,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="W119:Z119"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="K119:N119"/>
-    <mergeCell ref="O119:R119"/>
-    <mergeCell ref="S119:V119"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
     <mergeCell ref="W117:Z117"/>
     <mergeCell ref="C118:F118"/>
     <mergeCell ref="G118:J118"/>
@@ -27471,24 +27485,12 @@
     <mergeCell ref="K117:N117"/>
     <mergeCell ref="O117:R117"/>
     <mergeCell ref="S117:V117"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="W119:Z119"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="K119:N119"/>
+    <mergeCell ref="O119:R119"/>
+    <mergeCell ref="S119:V119"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27502,7 +27504,7 @@
   <dimension ref="B1:Z228"/>
   <sheetViews>
     <sheetView topLeftCell="O2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+      <selection activeCell="AN30" sqref="AN30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27550,40 +27552,40 @@
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="40">
         <v>50</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="34">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="40">
         <v>100</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="34">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="40">
         <v>250</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="34">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="40">
         <v>500</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="34">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="40">
         <v>700</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -27594,19 +27596,19 @@
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
-      <c r="F4" s="39"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="36">
         <v>50</v>
       </c>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
-      <c r="J4" s="42"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="36">
         <v>100</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="37"/>
-      <c r="N4" s="39"/>
+      <c r="N4" s="38"/>
       <c r="O4" s="36">
         <v>200</v>
       </c>
@@ -27619,49 +27621,49 @@
       <c r="T4" s="37"/>
       <c r="U4" s="37"/>
       <c r="V4" s="37"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
     </row>
     <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="32">
         <v>2</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="31">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="32">
         <v>5</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="31">
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="32">
         <v>8</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="31">
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="32">
         <v>10</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="31">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="32">
         <v>20</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
@@ -34849,40 +34851,40 @@
       <c r="B117" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="34">
+      <c r="C117" s="40">
         <v>50</v>
       </c>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="34">
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="40">
         <v>100</v>
       </c>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="34">
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="40">
         <v>250</v>
       </c>
-      <c r="L117" s="35"/>
-      <c r="M117" s="35"/>
-      <c r="N117" s="38"/>
-      <c r="O117" s="34">
+      <c r="L117" s="41"/>
+      <c r="M117" s="41"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="40">
         <v>500</v>
       </c>
-      <c r="P117" s="35"/>
-      <c r="Q117" s="35"/>
-      <c r="R117" s="35"/>
-      <c r="S117" s="34">
+      <c r="P117" s="41"/>
+      <c r="Q117" s="41"/>
+      <c r="R117" s="41"/>
+      <c r="S117" s="40">
         <v>700</v>
       </c>
-      <c r="T117" s="35"/>
-      <c r="U117" s="35"/>
-      <c r="V117" s="35"/>
-      <c r="W117" s="33"/>
-      <c r="X117" s="33"/>
-      <c r="Y117" s="33"/>
-      <c r="Z117" s="33"/>
+      <c r="T117" s="41"/>
+      <c r="U117" s="41"/>
+      <c r="V117" s="41"/>
+      <c r="W117" s="31"/>
+      <c r="X117" s="31"/>
+      <c r="Y117" s="31"/>
+      <c r="Z117" s="31"/>
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
@@ -34893,19 +34895,19 @@
       </c>
       <c r="D118" s="37"/>
       <c r="E118" s="37"/>
-      <c r="F118" s="39"/>
+      <c r="F118" s="38"/>
       <c r="G118" s="36">
         <v>50</v>
       </c>
       <c r="H118" s="37"/>
       <c r="I118" s="37"/>
-      <c r="J118" s="42"/>
+      <c r="J118" s="39"/>
       <c r="K118" s="36">
         <v>100</v>
       </c>
       <c r="L118" s="37"/>
       <c r="M118" s="37"/>
-      <c r="N118" s="39"/>
+      <c r="N118" s="38"/>
       <c r="O118" s="36">
         <v>200</v>
       </c>
@@ -34918,49 +34920,49 @@
       <c r="T118" s="37"/>
       <c r="U118" s="37"/>
       <c r="V118" s="37"/>
-      <c r="W118" s="33"/>
-      <c r="X118" s="33"/>
-      <c r="Y118" s="33"/>
-      <c r="Z118" s="33"/>
+      <c r="W118" s="31"/>
+      <c r="X118" s="31"/>
+      <c r="Y118" s="31"/>
+      <c r="Z118" s="31"/>
     </row>
     <row r="119" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="32">
         <v>2</v>
       </c>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="40"/>
-      <c r="G119" s="31">
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="32">
         <v>5</v>
       </c>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="43"/>
-      <c r="K119" s="31">
+      <c r="H119" s="33"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="32">
         <v>8</v>
       </c>
-      <c r="L119" s="32"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="40"/>
-      <c r="O119" s="31">
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="34"/>
+      <c r="O119" s="32">
         <v>10</v>
       </c>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="32"/>
-      <c r="S119" s="31">
+      <c r="P119" s="33"/>
+      <c r="Q119" s="33"/>
+      <c r="R119" s="33"/>
+      <c r="S119" s="32">
         <v>20</v>
       </c>
-      <c r="T119" s="32"/>
-      <c r="U119" s="32"/>
-      <c r="V119" s="32"/>
-      <c r="W119" s="33"/>
-      <c r="X119" s="33"/>
-      <c r="Y119" s="33"/>
-      <c r="Z119" s="33"/>
+      <c r="T119" s="33"/>
+      <c r="U119" s="33"/>
+      <c r="V119" s="33"/>
+      <c r="W119" s="31"/>
+      <c r="X119" s="31"/>
+      <c r="Y119" s="31"/>
+      <c r="Z119" s="31"/>
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B120" s="24"/>
@@ -42134,12 +42136,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="W119:Z119"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="K119:N119"/>
-    <mergeCell ref="O119:R119"/>
-    <mergeCell ref="S119:V119"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
     <mergeCell ref="W117:Z117"/>
     <mergeCell ref="C118:F118"/>
     <mergeCell ref="G118:J118"/>
@@ -42152,24 +42166,12 @@
     <mergeCell ref="K117:N117"/>
     <mergeCell ref="O117:R117"/>
     <mergeCell ref="S117:V117"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W119:Z119"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="K119:N119"/>
+    <mergeCell ref="O119:R119"/>
+    <mergeCell ref="S119:V119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -42229,40 +42231,40 @@
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="40">
         <v>50</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="34">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="40">
         <v>100</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="34">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="40">
         <v>250</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="34">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="40">
         <v>500</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="34">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="40">
         <v>700</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -42273,19 +42275,19 @@
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
-      <c r="F4" s="39"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="36">
         <v>50</v>
       </c>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
-      <c r="J4" s="42"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="36">
         <v>100</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="37"/>
-      <c r="N4" s="39"/>
+      <c r="N4" s="38"/>
       <c r="O4" s="36">
         <v>200</v>
       </c>
@@ -42298,49 +42300,49 @@
       <c r="T4" s="37"/>
       <c r="U4" s="37"/>
       <c r="V4" s="37"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
     </row>
     <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="32">
         <v>2</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="31">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="32">
         <v>5</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="31">
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="32">
         <v>8</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="31">
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="32">
         <v>10</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="31">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="32">
         <v>20</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
@@ -49528,40 +49530,40 @@
       <c r="B117" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="34">
+      <c r="C117" s="40">
         <v>50</v>
       </c>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="34">
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="40">
         <v>100</v>
       </c>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="34">
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="40">
         <v>250</v>
       </c>
-      <c r="L117" s="35"/>
-      <c r="M117" s="35"/>
-      <c r="N117" s="38"/>
-      <c r="O117" s="34">
+      <c r="L117" s="41"/>
+      <c r="M117" s="41"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="40">
         <v>500</v>
       </c>
-      <c r="P117" s="35"/>
-      <c r="Q117" s="35"/>
-      <c r="R117" s="35"/>
-      <c r="S117" s="34">
+      <c r="P117" s="41"/>
+      <c r="Q117" s="41"/>
+      <c r="R117" s="41"/>
+      <c r="S117" s="40">
         <v>700</v>
       </c>
-      <c r="T117" s="35"/>
-      <c r="U117" s="35"/>
-      <c r="V117" s="35"/>
-      <c r="W117" s="33"/>
-      <c r="X117" s="33"/>
-      <c r="Y117" s="33"/>
-      <c r="Z117" s="33"/>
+      <c r="T117" s="41"/>
+      <c r="U117" s="41"/>
+      <c r="V117" s="41"/>
+      <c r="W117" s="31"/>
+      <c r="X117" s="31"/>
+      <c r="Y117" s="31"/>
+      <c r="Z117" s="31"/>
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
@@ -49572,19 +49574,19 @@
       </c>
       <c r="D118" s="37"/>
       <c r="E118" s="37"/>
-      <c r="F118" s="39"/>
+      <c r="F118" s="38"/>
       <c r="G118" s="36">
         <v>50</v>
       </c>
       <c r="H118" s="37"/>
       <c r="I118" s="37"/>
-      <c r="J118" s="42"/>
+      <c r="J118" s="39"/>
       <c r="K118" s="36">
         <v>100</v>
       </c>
       <c r="L118" s="37"/>
       <c r="M118" s="37"/>
-      <c r="N118" s="39"/>
+      <c r="N118" s="38"/>
       <c r="O118" s="36">
         <v>200</v>
       </c>
@@ -49597,49 +49599,49 @@
       <c r="T118" s="37"/>
       <c r="U118" s="37"/>
       <c r="V118" s="37"/>
-      <c r="W118" s="33"/>
-      <c r="X118" s="33"/>
-      <c r="Y118" s="33"/>
-      <c r="Z118" s="33"/>
+      <c r="W118" s="31"/>
+      <c r="X118" s="31"/>
+      <c r="Y118" s="31"/>
+      <c r="Z118" s="31"/>
     </row>
     <row r="119" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="32">
         <v>2</v>
       </c>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="40"/>
-      <c r="G119" s="31">
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="32">
         <v>5</v>
       </c>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="43"/>
-      <c r="K119" s="31">
+      <c r="H119" s="33"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="32">
         <v>8</v>
       </c>
-      <c r="L119" s="32"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="40"/>
-      <c r="O119" s="31">
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="34"/>
+      <c r="O119" s="32">
         <v>10</v>
       </c>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="32"/>
-      <c r="S119" s="31">
+      <c r="P119" s="33"/>
+      <c r="Q119" s="33"/>
+      <c r="R119" s="33"/>
+      <c r="S119" s="32">
         <v>20</v>
       </c>
-      <c r="T119" s="32"/>
-      <c r="U119" s="32"/>
-      <c r="V119" s="32"/>
-      <c r="W119" s="33"/>
-      <c r="X119" s="33"/>
-      <c r="Y119" s="33"/>
-      <c r="Z119" s="33"/>
+      <c r="T119" s="33"/>
+      <c r="U119" s="33"/>
+      <c r="V119" s="33"/>
+      <c r="W119" s="31"/>
+      <c r="X119" s="31"/>
+      <c r="Y119" s="31"/>
+      <c r="Z119" s="31"/>
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B120" s="24"/>
@@ -56813,12 +56815,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="W119:Z119"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="K119:N119"/>
-    <mergeCell ref="O119:R119"/>
-    <mergeCell ref="S119:V119"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
     <mergeCell ref="W117:Z117"/>
     <mergeCell ref="C118:F118"/>
     <mergeCell ref="G118:J118"/>
@@ -56831,24 +56845,12 @@
     <mergeCell ref="K117:N117"/>
     <mergeCell ref="O117:R117"/>
     <mergeCell ref="S117:V117"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W119:Z119"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="K119:N119"/>
+    <mergeCell ref="O119:R119"/>
+    <mergeCell ref="S119:V119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -56860,7 +56862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3612EC3-51FB-4129-AFC9-F1F1307FD66C}">
   <dimension ref="B1:Z228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="P4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
@@ -56909,40 +56911,40 @@
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="40">
         <v>50</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="34">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="40">
         <v>100</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="34">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="40">
         <v>250</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="34">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="40">
         <v>500</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="34">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="40">
         <v>700</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -56953,19 +56955,19 @@
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
-      <c r="F4" s="39"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="36">
         <v>50</v>
       </c>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
-      <c r="J4" s="42"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="36">
         <v>100</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="37"/>
-      <c r="N4" s="39"/>
+      <c r="N4" s="38"/>
       <c r="O4" s="36">
         <v>200</v>
       </c>
@@ -56978,49 +56980,49 @@
       <c r="T4" s="37"/>
       <c r="U4" s="37"/>
       <c r="V4" s="37"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
     </row>
     <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="32">
         <v>2</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="31">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="32">
         <v>5</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="31">
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="32">
         <v>8</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="31">
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="32">
         <v>10</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="31">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="32">
         <v>20</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
@@ -64208,40 +64210,40 @@
       <c r="B117" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="34">
+      <c r="C117" s="40">
         <v>50</v>
       </c>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="34">
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="40">
         <v>100</v>
       </c>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="34">
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="40">
         <v>250</v>
       </c>
-      <c r="L117" s="35"/>
-      <c r="M117" s="35"/>
-      <c r="N117" s="38"/>
-      <c r="O117" s="34">
+      <c r="L117" s="41"/>
+      <c r="M117" s="41"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="40">
         <v>500</v>
       </c>
-      <c r="P117" s="35"/>
-      <c r="Q117" s="35"/>
-      <c r="R117" s="35"/>
-      <c r="S117" s="34">
+      <c r="P117" s="41"/>
+      <c r="Q117" s="41"/>
+      <c r="R117" s="41"/>
+      <c r="S117" s="40">
         <v>700</v>
       </c>
-      <c r="T117" s="35"/>
-      <c r="U117" s="35"/>
-      <c r="V117" s="35"/>
-      <c r="W117" s="33"/>
-      <c r="X117" s="33"/>
-      <c r="Y117" s="33"/>
-      <c r="Z117" s="33"/>
+      <c r="T117" s="41"/>
+      <c r="U117" s="41"/>
+      <c r="V117" s="41"/>
+      <c r="W117" s="31"/>
+      <c r="X117" s="31"/>
+      <c r="Y117" s="31"/>
+      <c r="Z117" s="31"/>
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
@@ -64252,19 +64254,19 @@
       </c>
       <c r="D118" s="37"/>
       <c r="E118" s="37"/>
-      <c r="F118" s="39"/>
+      <c r="F118" s="38"/>
       <c r="G118" s="36">
         <v>50</v>
       </c>
       <c r="H118" s="37"/>
       <c r="I118" s="37"/>
-      <c r="J118" s="42"/>
+      <c r="J118" s="39"/>
       <c r="K118" s="36">
         <v>100</v>
       </c>
       <c r="L118" s="37"/>
       <c r="M118" s="37"/>
-      <c r="N118" s="39"/>
+      <c r="N118" s="38"/>
       <c r="O118" s="36">
         <v>200</v>
       </c>
@@ -64277,49 +64279,49 @@
       <c r="T118" s="37"/>
       <c r="U118" s="37"/>
       <c r="V118" s="37"/>
-      <c r="W118" s="33"/>
-      <c r="X118" s="33"/>
-      <c r="Y118" s="33"/>
-      <c r="Z118" s="33"/>
+      <c r="W118" s="31"/>
+      <c r="X118" s="31"/>
+      <c r="Y118" s="31"/>
+      <c r="Z118" s="31"/>
     </row>
     <row r="119" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="32">
         <v>2</v>
       </c>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="40"/>
-      <c r="G119" s="31">
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="32">
         <v>5</v>
       </c>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="43"/>
-      <c r="K119" s="31">
+      <c r="H119" s="33"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="32">
         <v>8</v>
       </c>
-      <c r="L119" s="32"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="40"/>
-      <c r="O119" s="31">
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="34"/>
+      <c r="O119" s="32">
         <v>10</v>
       </c>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="32"/>
-      <c r="S119" s="31">
+      <c r="P119" s="33"/>
+      <c r="Q119" s="33"/>
+      <c r="R119" s="33"/>
+      <c r="S119" s="32">
         <v>20</v>
       </c>
-      <c r="T119" s="32"/>
-      <c r="U119" s="32"/>
-      <c r="V119" s="32"/>
-      <c r="W119" s="33"/>
-      <c r="X119" s="33"/>
-      <c r="Y119" s="33"/>
-      <c r="Z119" s="33"/>
+      <c r="T119" s="33"/>
+      <c r="U119" s="33"/>
+      <c r="V119" s="33"/>
+      <c r="W119" s="31"/>
+      <c r="X119" s="31"/>
+      <c r="Y119" s="31"/>
+      <c r="Z119" s="31"/>
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B120" s="24"/>
@@ -71493,6 +71495,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="W119:Z119"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="K118:N118"/>
+    <mergeCell ref="O118:R118"/>
+    <mergeCell ref="S118:V118"/>
+    <mergeCell ref="W118:Z118"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="K119:N119"/>
+    <mergeCell ref="O119:R119"/>
+    <mergeCell ref="S119:V119"/>
+    <mergeCell ref="W117:Z117"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="K117:N117"/>
+    <mergeCell ref="O117:R117"/>
+    <mergeCell ref="S117:V117"/>
     <mergeCell ref="W4:Z4"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -71505,30 +71531,6 @@
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W117:Z117"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="K117:N117"/>
-    <mergeCell ref="O117:R117"/>
-    <mergeCell ref="S117:V117"/>
-    <mergeCell ref="W119:Z119"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="G118:J118"/>
-    <mergeCell ref="K118:N118"/>
-    <mergeCell ref="O118:R118"/>
-    <mergeCell ref="S118:V118"/>
-    <mergeCell ref="W118:Z118"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="K119:N119"/>
-    <mergeCell ref="O119:R119"/>
-    <mergeCell ref="S119:V119"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
